--- a/packages/client/public/DeviceTableTemplate.xlsx
+++ b/packages/client/public/DeviceTableTemplate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E612D0-AF9D-4D38-8BBF-E797F048B9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBAACB7-B67A-49ED-9B7E-0FD0C95B5F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,9 @@
     <t>使用人</t>
   </si>
   <si>
+    <t>部门</t>
+  </si>
+  <si>
     <t>网络名称</t>
   </si>
   <si>
@@ -51,9 +54,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -437,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,15 +482,13 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="L2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/packages/client/public/DeviceTableTemplate.xlsx
+++ b/packages/client/public/DeviceTableTemplate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBAACB7-B67A-49ED-9B7E-0FD0C95B5F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1999BCC-74BF-46F4-AE85-DBEC62B08813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>物理位置</t>
   </si>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>显示器序列号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -437,15 +441,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="15.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,33 +463,36 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
